--- a/data_output/prism_passive/all_passive_force at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 0 deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>285.00513024501407</v>
+        <v>285.00513025067477</v>
       </c>
       <c r="C2">
-        <v>284.89035117666157</v>
+        <v>284.89035117850062</v>
       </c>
       <c r="D2">
-        <v>279.77359597693857</v>
+        <v>279.77359595926248</v>
       </c>
       <c r="E2">
-        <v>350.68304540899186</v>
+        <v>350.68304538903823</v>
       </c>
       <c r="F2">
-        <v>275.98220752480728</v>
+        <v>275.98220752027504</v>
       </c>
       <c r="G2">
-        <v>467.09970973434514</v>
+        <v>467.09970973637343</v>
       </c>
       <c r="H2">
-        <v>447.897362016123</v>
+        <v>447.89736201582508</v>
       </c>
       <c r="I2">
-        <v>432.09219817090394</v>
+        <v>432.09219821828356</v>
       </c>
       <c r="J2">
-        <v>375.82358320039094</v>
+        <v>375.8235832538619</v>
       </c>
       <c r="K2">
-        <v>326.43639272912753</v>
+        <v>326.43639272564633</v>
       </c>
       <c r="L2">
-        <v>276.07240732242377</v>
+        <v>276.07240731913589</v>
       </c>
       <c r="M2">
-        <v>461.40622960061137</v>
+        <v>461.40622960256979</v>
       </c>
       <c r="N2">
-        <v>354.00925077738333</v>
+        <v>354.00925088251648</v>
       </c>
       <c r="O2">
-        <v>305.43452465914066</v>
+        <v>305.43452465743718</v>
       </c>
       <c r="P2">
-        <v>400.67485530403957</v>
+        <v>400.67485530268203</v>
       </c>
       <c r="Q2">
-        <v>317.60152479732517</v>
+        <v>317.60152479725025</v>
       </c>
       <c r="R2">
-        <v>558.17631009103309</v>
+        <v>558.17631017886845</v>
       </c>
       <c r="S2">
-        <v>560.24957247295299</v>
+        <v>560.2495724683987</v>
       </c>
       <c r="T2">
-        <v>580.2950910115859</v>
+        <v>580.29509101518579</v>
       </c>
       <c r="U2">
-        <v>312.14489441834002</v>
+        <v>312.14489441501547</v>
       </c>
       <c r="V2">
-        <v>512.12760319141262</v>
+        <v>512.12760319211861</v>
       </c>
       <c r="W2">
-        <v>314.1659112799594</v>
+        <v>314.16591129416526</v>
       </c>
       <c r="X2">
-        <v>263.22146408309521</v>
+        <v>263.22146408456388</v>
       </c>
       <c r="Y2">
-        <v>455.37177016387886</v>
+        <v>455.37177019098175</v>
       </c>
       <c r="Z2">
-        <v>231.40086072723503</v>
+        <v>231.40086072865043</v>
       </c>
       <c r="AA2">
-        <v>346.36579125144516</v>
+        <v>346.36579133322795</v>
       </c>
       <c r="AB2">
-        <v>235.13554346731721</v>
+        <v>235.13554346955689</v>
       </c>
       <c r="AC2">
-        <v>252.74767935047905</v>
+        <v>252.74767934863917</v>
       </c>
       <c r="AD2">
-        <v>223.07893204063464</v>
+        <v>223.07893203940253</v>
       </c>
       <c r="AE2">
-        <v>209.11348399707163</v>
+        <v>209.11348400941043</v>
       </c>
       <c r="AF2">
-        <v>460.52938146374782</v>
+        <v>460.5293814622562</v>
       </c>
       <c r="AG2">
-        <v>277.51122643175125</v>
+        <v>277.51122643882189</v>
       </c>
       <c r="AH2">
-        <v>417.09336853639962</v>
+        <v>417.09336853988674</v>
       </c>
       <c r="AI2">
-        <v>415.78894677110799</v>
+        <v>415.78894676836012</v>
       </c>
       <c r="AJ2">
-        <v>446.4361538069216</v>
+        <v>446.43615381223293</v>
       </c>
       <c r="AK2">
-        <v>248.1323425674681</v>
+        <v>248.13234256610886</v>
       </c>
       <c r="AL2">
-        <v>544.21526079327884</v>
+        <v>544.21526079813566</v>
       </c>
       <c r="AM2">
-        <v>488.37541368176267</v>
+        <v>488.37541368022198</v>
       </c>
       <c r="AN2">
-        <v>319.58798194503726</v>
+        <v>319.5879819441991</v>
       </c>
       <c r="AO2">
-        <v>447.78263461391174</v>
+        <v>447.78263462077456</v>
       </c>
       <c r="AP2">
-        <v>344.97402976022801</v>
+        <v>344.97402975684781</v>
       </c>
       <c r="AQ2">
-        <v>485.9997002012521</v>
+        <v>485.99970020148959</v>
       </c>
       <c r="AR2">
-        <v>429.42876680799856</v>
+        <v>429.4287668072032</v>
       </c>
       <c r="AS2">
-        <v>444.83056665677515</v>
+        <v>444.8305667803595</v>
       </c>
       <c r="AT2">
-        <v>265.01065084621803</v>
+        <v>265.01065084635815</v>
       </c>
       <c r="AU2">
-        <v>483.89351315559293</v>
+        <v>483.89351315686213</v>
       </c>
       <c r="AV2">
-        <v>257.78635474204094</v>
+        <v>257.78635474545797</v>
       </c>
       <c r="AW2">
-        <v>215.2309003352218</v>
+        <v>215.2309003411597</v>
       </c>
       <c r="AX2">
-        <v>354.07810110480631</v>
+        <v>354.07810110546416</v>
       </c>
       <c r="AY2">
-        <v>244.51552249113243</v>
+        <v>244.51552249532946</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>319.99972910939852</v>
+        <v>319.99972913695598</v>
       </c>
       <c r="C3">
-        <v>269.61432496401693</v>
+        <v>269.61432496738024</v>
       </c>
       <c r="D3">
-        <v>270.65514510750387</v>
+        <v>270.65514519067227</v>
       </c>
       <c r="E3">
-        <v>399.18904800093333</v>
+        <v>399.18904820464655</v>
       </c>
       <c r="F3">
-        <v>257.59253667793797</v>
+        <v>257.59253668300494</v>
       </c>
       <c r="G3">
-        <v>542.84518751528992</v>
+        <v>542.84518754610451</v>
       </c>
       <c r="H3">
-        <v>419.63003550030385</v>
+        <v>419.63003549327004</v>
       </c>
       <c r="I3">
-        <v>458.77797626260161</v>
+        <v>458.77797625812718</v>
       </c>
       <c r="J3">
-        <v>324.14967352526224</v>
+        <v>324.14967352617714</v>
       </c>
       <c r="K3">
-        <v>461.60926870934856</v>
+        <v>461.60926872899398</v>
       </c>
       <c r="L3">
-        <v>381.34883105835041</v>
+        <v>381.34883106689631</v>
       </c>
       <c r="M3">
-        <v>606.81540158088774</v>
+        <v>606.8297202016912</v>
       </c>
       <c r="N3">
-        <v>471.89009933730586</v>
+        <v>471.89009935403419</v>
       </c>
       <c r="O3">
-        <v>332.52661422239777</v>
+        <v>332.52661422423711</v>
       </c>
       <c r="P3">
-        <v>451.77240501081224</v>
+        <v>451.77240500309927</v>
       </c>
       <c r="Q3">
-        <v>373.48823347994693</v>
+        <v>373.48823347895694</v>
       </c>
       <c r="R3">
-        <v>353.48246798531619</v>
+        <v>353.48246798397503</v>
       </c>
       <c r="S3">
-        <v>492.26245813256429</v>
+        <v>492.2624581284802</v>
       </c>
       <c r="T3">
-        <v>540.9856884159027</v>
+        <v>540.9856884272557</v>
       </c>
       <c r="U3">
-        <v>383.29284080022029</v>
+        <v>383.2928407970237</v>
       </c>
       <c r="V3">
-        <v>490.1629901976039</v>
+        <v>490.162990184732</v>
       </c>
       <c r="W3">
-        <v>294.62888706353493</v>
+        <v>294.62888707486684</v>
       </c>
       <c r="X3">
-        <v>293.70685946448862</v>
+        <v>293.70685946212762</v>
       </c>
       <c r="Y3">
-        <v>423.47969525227472</v>
+        <v>423.47969524932563</v>
       </c>
       <c r="Z3">
-        <v>283.5156660741871</v>
+        <v>283.515666078067</v>
       </c>
       <c r="AA3">
-        <v>346.01825522459302</v>
+        <v>346.01825522584949</v>
       </c>
       <c r="AB3">
-        <v>244.60978117164791</v>
+        <v>244.60978116466808</v>
       </c>
       <c r="AC3">
-        <v>288.30659213380818</v>
+        <v>288.30659214029998</v>
       </c>
       <c r="AD3">
-        <v>308.26275937730281</v>
+        <v>308.26275938027305</v>
       </c>
       <c r="AE3">
-        <v>232.81963380242038</v>
+        <v>232.81963379948047</v>
       </c>
       <c r="AF3">
-        <v>358.59700966070687</v>
+        <v>358.59700966727451</v>
       </c>
       <c r="AG3">
-        <v>214.84576012408016</v>
+        <v>214.84576012776571</v>
       </c>
       <c r="AH3">
-        <v>487.17662590838307</v>
+        <v>487.17662595562905</v>
       </c>
       <c r="AI3">
-        <v>300.7124645986687</v>
+        <v>300.71246460515141</v>
       </c>
       <c r="AJ3">
-        <v>481.36067384974967</v>
+        <v>481.3606738775045</v>
       </c>
       <c r="AK3">
-        <v>288.56253692531925</v>
+        <v>288.56253692582459</v>
       </c>
       <c r="AL3">
-        <v>420.78423796652874</v>
+        <v>420.78423796638691</v>
       </c>
       <c r="AM3">
-        <v>536.66073985850153</v>
+        <v>536.66073985527794</v>
       </c>
       <c r="AN3">
-        <v>294.56426872179071</v>
+        <v>294.56426872549542</v>
       </c>
       <c r="AO3">
-        <v>450.83419179794646</v>
+        <v>450.8341917979165</v>
       </c>
       <c r="AP3">
-        <v>353.93642283450299</v>
+        <v>353.93642284423305</v>
       </c>
       <c r="AQ3">
-        <v>331.95508226093938</v>
+        <v>331.95508226800848</v>
       </c>
       <c r="AR3">
-        <v>451.9087287375325</v>
+        <v>451.9087287223129</v>
       </c>
       <c r="AS3">
-        <v>428.82422180913471</v>
+        <v>428.8242218149465</v>
       </c>
       <c r="AT3">
-        <v>263.63605330601337</v>
+        <v>263.63605330603127</v>
       </c>
       <c r="AU3">
-        <v>523.77988477865779</v>
+        <v>523.77988478078066</v>
       </c>
       <c r="AV3">
-        <v>277.67711005630912</v>
+        <v>277.67711005701625</v>
       </c>
       <c r="AW3">
-        <v>257.49121150907297</v>
+        <v>257.49121150136307</v>
       </c>
       <c r="AX3">
-        <v>444.17460444832312</v>
+        <v>444.17460445212015</v>
       </c>
       <c r="AY3">
-        <v>293.80698216390363</v>
+        <v>293.80698216192087</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_force at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 0 deg.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>285.00513025067477</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>284.89035117850062</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>279.77359595926248</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>350.68304538903823</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>275.98220752027504</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>467.09970973637343</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>447.89736201582508</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>432.09219821828356</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>375.8235832538619</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>326.43639272564633</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>276.07240731913589</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>461.40622960256979</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>354.00925088251648</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>305.43452465743718</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>400.67485530268203</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>317.60152479725025</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>558.17631017886845</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>560.2495724683987</v>
@@ -588,55 +477,55 @@
         <v>231.40086072865043</v>
       </c>
       <c r="AA2">
-        <v>346.36579133322795</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>235.13554346955689</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>252.74767934863917</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>223.07893203940253</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>209.11348400941043</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>460.5293814622562</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>277.51122643882189</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>417.09336853988674</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>415.78894676836012</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>446.43615381223293</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>248.13234256610886</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>544.21526079813566</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>488.37541368022198</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>319.5879819441991</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>447.78263462077456</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>344.97402975684781</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>485.99970020148959</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>429.4287668072032</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>319.99972913695598</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>269.61432496738024</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>270.65514519067227</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>399.18904820464655</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>257.59253668300494</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>542.84518754610451</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>419.63003549327004</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>458.77797625812718</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>324.14967352617714</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>461.60926872899398</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>381.34883106689631</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>606.8297202016912</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>471.89009935403419</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>332.52661422423711</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>451.77240500309927</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>373.48823347895694</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>353.48246798397503</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>492.2624581284802</v>
@@ -743,55 +629,55 @@
         <v>283.515666078067</v>
       </c>
       <c r="AA3">
-        <v>346.01825522584949</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>244.60978116466808</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>288.30659214029998</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>308.26275938027305</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>232.81963379948047</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>358.59700966727451</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>214.84576012776571</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>487.17662595562905</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>300.71246460515141</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>481.3606738775045</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>288.56253692582459</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>420.78423796638691</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>536.66073985527794</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>294.56426872549542</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>450.8341917979165</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>353.93642284423305</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>331.95508226800848</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>451.9087287223129</v>

--- a/data_output/prism_passive/all_passive_force at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 0 deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>285.00513024501407</v>
+        <v>305.43452465743718</v>
       </c>
       <c r="C2">
-        <v>284.89035117666157</v>
+        <v>558.17631017886845</v>
       </c>
       <c r="D2">
-        <v>279.77359597693857</v>
+        <v>319.5879819441991</v>
       </c>
       <c r="E2">
-        <v>350.68304540899186</v>
+        <v>485.99970020148959</v>
       </c>
       <c r="F2">
         <v>275.98220752480728</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>319.99972910939852</v>
+        <v>332.52661422423711</v>
       </c>
       <c r="C3">
-        <v>269.61432496401693</v>
+        <v>353.48246798397503</v>
       </c>
       <c r="D3">
-        <v>270.65514510750387</v>
+        <v>294.56426872549542</v>
       </c>
       <c r="E3">
-        <v>399.18904800093333</v>
+        <v>302.71437874738388</v>
       </c>
       <c r="F3">
         <v>257.59253667793797</v>

--- a/data_output/prism_passive/all_passive_force at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 0 deg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>285.00513024501407</v>
+        <v>354.00925088251648</v>
       </c>
       <c r="C2">
-        <v>284.89035117666157</v>
+        <v>305.43452465743718</v>
       </c>
       <c r="D2">
-        <v>279.77359597693857</v>
+        <v>488.37541368022198</v>
       </c>
       <c r="E2">
-        <v>350.68304540899186</v>
+        <v>319.5879819441991</v>
       </c>
       <c r="F2">
         <v>275.98220752480728</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>319.99972910939852</v>
+        <v>471.89009935403419</v>
       </c>
       <c r="C3">
-        <v>269.61432496401693</v>
+        <v>332.52661422423711</v>
       </c>
       <c r="D3">
-        <v>270.65514510750387</v>
+        <v>536.66073985527794</v>
       </c>
       <c r="E3">
-        <v>399.18904800093333</v>
+        <v>294.56426872549542</v>
       </c>
       <c r="F3">
         <v>257.59253667793797</v>

--- a/data_output/prism_passive/all_passive_force at 0 deg.xlsx
+++ b/data_output/prism_passive/all_passive_force at 0 deg.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>285.00513025067477</v>
+      </c>
+      <c r="C2">
+        <v>284.89035117850062</v>
+      </c>
+      <c r="D2">
+        <v>279.77359595926248</v>
+      </c>
+      <c r="E2">
+        <v>350.68304538903823</v>
+      </c>
+      <c r="F2">
+        <v>275.98220752027504</v>
+      </c>
+      <c r="G2">
+        <v>467.09970973637343</v>
+      </c>
+      <c r="H2">
+        <v>447.89736201582508</v>
+      </c>
+      <c r="I2">
+        <v>432.09219821828356</v>
+      </c>
+      <c r="J2">
+        <v>375.8235832538619</v>
+      </c>
+      <c r="K2">
+        <v>326.43639272564633</v>
+      </c>
+      <c r="L2">
+        <v>276.07240731913589</v>
+      </c>
+      <c r="M2">
+        <v>461.40622960256979</v>
+      </c>
+      <c r="N2">
         <v>354.00925088251648</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>305.43452465743718</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>400.67485530268203</v>
+      </c>
+      <c r="Q2">
+        <v>317.60152479725025</v>
+      </c>
+      <c r="R2">
+        <v>558.17631017886845</v>
+      </c>
+      <c r="S2">
+        <v>560.2495724683987</v>
+      </c>
+      <c r="T2">
+        <v>580.29509101518579</v>
+      </c>
+      <c r="U2">
+        <v>312.14489441501547</v>
+      </c>
+      <c r="V2">
+        <v>512.12760319211861</v>
+      </c>
+      <c r="W2">
+        <v>314.16591129416526</v>
+      </c>
+      <c r="X2">
+        <v>263.22146408456388</v>
+      </c>
+      <c r="Y2">
+        <v>455.37177019098175</v>
+      </c>
+      <c r="Z2">
+        <v>231.40086072865043</v>
+      </c>
+      <c r="AA2">
+        <v>346.36579133322795</v>
+      </c>
+      <c r="AB2">
+        <v>235.13554346955689</v>
+      </c>
+      <c r="AC2">
+        <v>252.74767934863917</v>
+      </c>
+      <c r="AD2">
+        <v>223.07893203940253</v>
+      </c>
+      <c r="AE2">
+        <v>209.11348400941043</v>
+      </c>
+      <c r="AF2">
+        <v>460.5293814622562</v>
+      </c>
+      <c r="AG2">
+        <v>277.51122643882189</v>
+      </c>
+      <c r="AH2">
+        <v>417.09336853988674</v>
+      </c>
+      <c r="AI2">
+        <v>415.78894676836012</v>
+      </c>
+      <c r="AJ2">
+        <v>446.43615381223293</v>
+      </c>
+      <c r="AK2">
+        <v>248.13234256610886</v>
+      </c>
+      <c r="AL2">
+        <v>544.21526079813566</v>
+      </c>
+      <c r="AM2">
         <v>488.37541368022198</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>319.5879819441991</v>
       </c>
-      <c r="F2">
-        <v>275.98220752480728</v>
-      </c>
-      <c r="G2">
-        <v>467.09970973434514</v>
-      </c>
-      <c r="H2">
-        <v>447.897362016123</v>
-      </c>
-      <c r="I2">
-        <v>432.09219817090394</v>
-      </c>
-      <c r="J2">
-        <v>375.82358320039094</v>
-      </c>
-      <c r="K2">
-        <v>326.43639272912753</v>
-      </c>
-      <c r="L2">
-        <v>276.07240732242377</v>
-      </c>
-      <c r="M2">
-        <v>461.40622960061137</v>
-      </c>
-      <c r="N2">
-        <v>354.00925077738333</v>
-      </c>
-      <c r="O2">
-        <v>305.43452465914066</v>
-      </c>
-      <c r="P2">
-        <v>400.67485530403957</v>
-      </c>
-      <c r="Q2">
-        <v>317.60152479732517</v>
-      </c>
-      <c r="R2">
-        <v>558.17631009103309</v>
-      </c>
-      <c r="S2">
-        <v>560.24957247295299</v>
-      </c>
-      <c r="T2">
-        <v>580.2950910115859</v>
-      </c>
-      <c r="U2">
-        <v>312.14489441834002</v>
-      </c>
-      <c r="V2">
-        <v>512.12760319141262</v>
-      </c>
-      <c r="W2">
-        <v>314.1659112799594</v>
-      </c>
-      <c r="X2">
-        <v>263.22146408309521</v>
-      </c>
-      <c r="Y2">
-        <v>455.37177016387886</v>
-      </c>
-      <c r="Z2">
-        <v>231.40086072723503</v>
-      </c>
-      <c r="AA2">
-        <v>346.36579125144516</v>
-      </c>
-      <c r="AB2">
-        <v>235.13554346731721</v>
-      </c>
-      <c r="AC2">
-        <v>252.74767935047905</v>
-      </c>
-      <c r="AD2">
-        <v>223.07893204063464</v>
-      </c>
-      <c r="AE2">
-        <v>209.11348399707163</v>
-      </c>
-      <c r="AF2">
-        <v>460.52938146374782</v>
-      </c>
-      <c r="AG2">
-        <v>277.51122643175125</v>
-      </c>
-      <c r="AH2">
-        <v>417.09336853639962</v>
-      </c>
-      <c r="AI2">
-        <v>415.78894677110799</v>
-      </c>
-      <c r="AJ2">
-        <v>446.4361538069216</v>
-      </c>
-      <c r="AK2">
-        <v>248.1323425674681</v>
-      </c>
-      <c r="AL2">
-        <v>544.21526079327884</v>
-      </c>
-      <c r="AM2">
-        <v>488.37541368176267</v>
-      </c>
-      <c r="AN2">
-        <v>319.58798194503726</v>
-      </c>
       <c r="AO2">
-        <v>447.78263461391174</v>
+        <v>447.78263462077456</v>
       </c>
       <c r="AP2">
-        <v>332.34021629411728</v>
+        <v>332.34021629294097</v>
       </c>
       <c r="AQ2">
-        <v>485.9997002012521</v>
+        <v>485.99970020148959</v>
       </c>
       <c r="AR2">
-        <v>429.42876680799856</v>
+        <v>429.4287668072032</v>
       </c>
       <c r="AS2">
-        <v>444.83056665677515</v>
+        <v>444.8305667803595</v>
       </c>
       <c r="AT2">
-        <v>265.01065084621803</v>
+        <v>265.01065084635815</v>
       </c>
       <c r="AU2">
-        <v>483.89351315559293</v>
+        <v>483.89351315686213</v>
       </c>
       <c r="AV2">
-        <v>257.78635474204094</v>
+        <v>257.78635474545797</v>
       </c>
       <c r="AW2">
-        <v>215.2309003352218</v>
+        <v>215.2309003411597</v>
       </c>
       <c r="AX2">
-        <v>354.07810110480631</v>
+        <v>354.07810110546416</v>
       </c>
       <c r="AY2">
-        <v>244.51552249113243</v>
+        <v>244.51552249532946</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>319.99972913695598</v>
+      </c>
+      <c r="C3">
+        <v>269.61432496738024</v>
+      </c>
+      <c r="D3">
+        <v>270.65514519067227</v>
+      </c>
+      <c r="E3">
+        <v>399.18904820464655</v>
+      </c>
+      <c r="F3">
+        <v>257.59253668300494</v>
+      </c>
+      <c r="G3">
+        <v>542.84518754610451</v>
+      </c>
+      <c r="H3">
+        <v>419.63003549327004</v>
+      </c>
+      <c r="I3">
+        <v>458.77797625812718</v>
+      </c>
+      <c r="J3">
+        <v>324.14967352617714</v>
+      </c>
+      <c r="K3">
+        <v>461.60926872899398</v>
+      </c>
+      <c r="L3">
+        <v>381.34883106689631</v>
+      </c>
+      <c r="M3">
+        <v>606.8297202016912</v>
+      </c>
+      <c r="N3">
         <v>471.89009935403419</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>332.52661422423711</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>451.77240500309927</v>
+      </c>
+      <c r="Q3">
+        <v>373.48823347895694</v>
+      </c>
+      <c r="R3">
+        <v>353.48246798397503</v>
+      </c>
+      <c r="S3">
+        <v>492.2624581284802</v>
+      </c>
+      <c r="T3">
+        <v>540.9856884272557</v>
+      </c>
+      <c r="U3">
+        <v>383.2928407970237</v>
+      </c>
+      <c r="V3">
+        <v>490.162990184732</v>
+      </c>
+      <c r="W3">
+        <v>291.76867805073363</v>
+      </c>
+      <c r="X3">
+        <v>293.70685946212762</v>
+      </c>
+      <c r="Y3">
+        <v>423.47969524932563</v>
+      </c>
+      <c r="Z3">
+        <v>283.515666078067</v>
+      </c>
+      <c r="AA3">
+        <v>346.01825522584949</v>
+      </c>
+      <c r="AB3">
+        <v>244.60978116466808</v>
+      </c>
+      <c r="AC3">
+        <v>288.30659214029998</v>
+      </c>
+      <c r="AD3">
+        <v>308.26275938027305</v>
+      </c>
+      <c r="AE3">
+        <v>232.81963379948047</v>
+      </c>
+      <c r="AF3">
+        <v>358.59700966727451</v>
+      </c>
+      <c r="AG3">
+        <v>214.84576012776571</v>
+      </c>
+      <c r="AH3">
+        <v>404.53168878340421</v>
+      </c>
+      <c r="AI3">
+        <v>300.71246460515141</v>
+      </c>
+      <c r="AJ3">
+        <v>481.3606738775045</v>
+      </c>
+      <c r="AK3">
+        <v>288.56253692582459</v>
+      </c>
+      <c r="AL3">
+        <v>420.78423796638691</v>
+      </c>
+      <c r="AM3">
         <v>536.66073985527794</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>294.56426872549542</v>
       </c>
-      <c r="F3">
-        <v>257.59253667793797</v>
-      </c>
-      <c r="G3">
-        <v>542.84518751528992</v>
-      </c>
-      <c r="H3">
-        <v>419.63003550030385</v>
-      </c>
-      <c r="I3">
-        <v>458.77797626260161</v>
-      </c>
-      <c r="J3">
-        <v>324.14967352526224</v>
-      </c>
-      <c r="K3">
-        <v>461.60926870934856</v>
-      </c>
-      <c r="L3">
-        <v>381.34883105835041</v>
-      </c>
-      <c r="M3">
-        <v>606.81540158088774</v>
-      </c>
-      <c r="N3">
-        <v>471.89009933730586</v>
-      </c>
-      <c r="O3">
-        <v>332.52661422239777</v>
-      </c>
-      <c r="P3">
-        <v>451.77240501081224</v>
-      </c>
-      <c r="Q3">
-        <v>373.48823347994693</v>
-      </c>
-      <c r="R3">
-        <v>353.48246798531619</v>
-      </c>
-      <c r="S3">
-        <v>492.26245813256429</v>
-      </c>
-      <c r="T3">
-        <v>540.9856884159027</v>
-      </c>
-      <c r="U3">
-        <v>383.29284080022029</v>
-      </c>
-      <c r="V3">
-        <v>490.1629901976039</v>
-      </c>
-      <c r="W3">
-        <v>291.76867803919134</v>
-      </c>
-      <c r="X3">
-        <v>293.70685946448862</v>
-      </c>
-      <c r="Y3">
-        <v>423.47969525227472</v>
-      </c>
-      <c r="Z3">
-        <v>283.5156660741871</v>
-      </c>
-      <c r="AA3">
-        <v>346.01825522459302</v>
-      </c>
-      <c r="AB3">
-        <v>244.60978117164791</v>
-      </c>
-      <c r="AC3">
-        <v>288.30659213380818</v>
-      </c>
-      <c r="AD3">
-        <v>308.26275937730281</v>
-      </c>
-      <c r="AE3">
-        <v>232.81963380242038</v>
-      </c>
-      <c r="AF3">
-        <v>358.59700966070687</v>
-      </c>
-      <c r="AG3">
-        <v>214.84576012408016</v>
-      </c>
-      <c r="AH3">
-        <v>404.53168877091798</v>
-      </c>
-      <c r="AI3">
-        <v>300.7124645986687</v>
-      </c>
-      <c r="AJ3">
-        <v>481.36067384974967</v>
-      </c>
-      <c r="AK3">
-        <v>288.56253692531925</v>
-      </c>
-      <c r="AL3">
-        <v>420.78423796652874</v>
-      </c>
-      <c r="AM3">
-        <v>536.66073985850153</v>
-      </c>
-      <c r="AN3">
-        <v>294.56426872179071</v>
-      </c>
       <c r="AO3">
-        <v>450.83419179794646</v>
+        <v>450.8341917979165</v>
       </c>
       <c r="AP3">
-        <v>353.93642283450299</v>
+        <v>353.93642284423305</v>
       </c>
       <c r="AQ3">
-        <v>302.71437874208215</v>
+        <v>302.71437874738388</v>
       </c>
       <c r="AR3">
-        <v>451.9087287375325</v>
+        <v>451.9087287223129</v>
       </c>
       <c r="AS3">
-        <v>428.82422180913471</v>
+        <v>428.8242218149465</v>
       </c>
       <c r="AT3">
-        <v>263.63605330601337</v>
+        <v>263.63605330603127</v>
       </c>
       <c r="AU3">
-        <v>523.77988477865779</v>
+        <v>523.77988478078066</v>
       </c>
       <c r="AV3">
-        <v>277.67711005630912</v>
+        <v>277.67711005701625</v>
       </c>
       <c r="AW3">
-        <v>257.49121150907297</v>
+        <v>257.49121150136307</v>
       </c>
       <c r="AX3">
-        <v>444.17460444832312</v>
+        <v>444.17460445212015</v>
       </c>
       <c r="AY3">
-        <v>293.80698216390363</v>
+        <v>293.80698216192087</v>
       </c>
     </row>
   </sheetData>
